--- a/Fichiers/EnteteJury.xlsx
+++ b/Fichiers/EnteteJury.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t xml:space="preserve">Code apprenant</t>
   </si>
@@ -252,6 +252,12 @@
   </si>
   <si>
     <t xml:space="preserve">Léa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lina</t>
   </si>
 </sst>
 </file>
@@ -589,10 +595,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
         <v>28</v>
@@ -603,10 +609,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="R3" t="s">
         <v>28</v>
@@ -617,10 +623,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="R4" t="s">
         <v>28</v>
@@ -631,10 +637,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="R5" t="s">
         <v>6</v>
@@ -645,10 +651,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="R6" t="s">
         <v>28</v>
@@ -659,10 +665,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="R7" t="s">
         <v>6</v>
@@ -673,10 +679,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="R8" t="s">
         <v>6</v>
@@ -687,10 +693,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="R9" t="s">
         <v>6</v>
@@ -701,10 +707,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="R10" t="s">
         <v>28</v>
@@ -715,10 +721,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="R11" t="s">
         <v>25</v>
@@ -729,10 +735,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="R12" t="s">
         <v>6</v>
@@ -743,10 +749,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="R13" t="s">
         <v>6</v>
@@ -757,10 +763,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="R14" t="s">
         <v>25</v>
@@ -771,10 +777,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="R15" t="s">
         <v>6</v>
@@ -785,10 +791,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="R16" t="s">
         <v>28</v>
@@ -799,10 +805,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="R17" t="s">
         <v>25</v>
@@ -813,10 +819,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="R18" t="s">
         <v>28</v>
@@ -827,10 +833,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="R19" t="s">
         <v>28</v>
@@ -841,10 +847,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="R20" t="s">
         <v>25</v>
@@ -855,10 +861,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="R21" t="s">
         <v>25</v>
@@ -869,10 +875,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="R22" t="s">
         <v>25</v>
@@ -883,10 +889,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="R23" t="s">
         <v>25</v>
@@ -897,10 +903,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="R24" t="s">
         <v>28</v>
@@ -911,10 +917,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="R25" t="s">
         <v>6</v>
@@ -925,10 +931,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="R26" t="s">
         <v>28</v>
@@ -939,10 +945,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="R27" t="s">
         <v>6</v>
@@ -953,10 +959,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="R28" t="s">
         <v>25</v>
@@ -967,10 +973,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="R29" t="s">
         <v>6</v>
@@ -981,10 +987,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="R30" t="s">
         <v>28</v>
@@ -995,10 +1001,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="R31" t="s">
         <v>6</v>
@@ -1009,10 +1015,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="R32" t="s">
         <v>25</v>
@@ -1023,10 +1029,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="R33" t="s">
         <v>28</v>
@@ -1037,10 +1043,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="R34" t="s">
         <v>28</v>
@@ -1051,10 +1057,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="R35" t="s">
         <v>25</v>
@@ -1065,10 +1071,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="R36" t="s">
         <v>28</v>
@@ -1079,10 +1085,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C37" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="R37" t="s">
         <v>6</v>
@@ -1093,10 +1099,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C38" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R38" t="s">
         <v>25</v>
@@ -1107,10 +1113,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C39" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="R39" t="s">
         <v>28</v>
@@ -1121,10 +1127,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="R40" t="s">
         <v>25</v>
@@ -1135,10 +1141,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C41" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="R41" t="s">
         <v>25</v>
@@ -1149,10 +1155,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="R42" t="s">
         <v>6</v>
@@ -1163,10 +1169,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R43" t="s">
         <v>28</v>
@@ -1177,10 +1183,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="R44" t="s">
         <v>28</v>
@@ -1191,10 +1197,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C45" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="R45" t="s">
         <v>25</v>
@@ -1205,10 +1211,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C46" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R46" t="s">
         <v>28</v>
@@ -1219,10 +1225,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="R47" t="s">
         <v>25</v>
@@ -1233,10 +1239,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="C48" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="R48" t="s">
         <v>28</v>
@@ -1247,10 +1253,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="C49" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="R49" t="s">
         <v>6</v>
@@ -1261,10 +1267,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R50" t="s">
         <v>25</v>
@@ -1275,10 +1281,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="C51" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="R51" t="s">
         <v>6</v>
@@ -1289,10 +1295,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="R52" t="s">
         <v>25</v>
@@ -1303,10 +1309,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C53" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="R53" t="s">
         <v>25</v>
@@ -1317,10 +1323,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C54" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R54" t="s">
         <v>28</v>
@@ -1331,10 +1337,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="C55" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="R55" t="s">
         <v>25</v>
@@ -1345,7 +1351,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -1359,10 +1365,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C57" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="R57" t="s">
         <v>25</v>
@@ -1373,10 +1379,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C58" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="R58" t="s">
         <v>25</v>
@@ -1387,10 +1393,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C59" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="R59" t="s">
         <v>28</v>
@@ -1401,10 +1407,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="C60" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R60" t="s">
         <v>25</v>
@@ -1415,10 +1421,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C61" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R61" t="s">
         <v>6</v>
@@ -1429,10 +1435,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C62" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R62" t="s">
         <v>25</v>
@@ -1443,10 +1449,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C63" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="R63" t="s">
         <v>28</v>
@@ -1457,10 +1463,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="C64" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="R64" t="s">
         <v>25</v>
@@ -1471,10 +1477,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="C65" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="R65" t="s">
         <v>28</v>
@@ -1488,7 +1494,7 @@
         <v>42</v>
       </c>
       <c r="C66" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="R66" t="s">
         <v>6</v>
@@ -1499,10 +1505,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="C67" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="R67" t="s">
         <v>28</v>
@@ -1513,10 +1519,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C68" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="R68" t="s">
         <v>6</v>
@@ -1527,10 +1533,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C69" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="R69" t="s">
         <v>6</v>
@@ -1544,7 +1550,7 @@
         <v>76</v>
       </c>
       <c r="C70" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="R70" t="s">
         <v>28</v>
@@ -1555,10 +1561,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C71" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="R71" t="s">
         <v>6</v>
@@ -1569,10 +1575,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="C72" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="R72" t="s">
         <v>6</v>
@@ -1583,10 +1589,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C73" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="R73" t="s">
         <v>28</v>
@@ -1597,10 +1603,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C74" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="R74" t="s">
         <v>28</v>
@@ -1614,7 +1620,7 @@
         <v>50</v>
       </c>
       <c r="C75" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="R75" t="s">
         <v>25</v>
@@ -1625,10 +1631,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C76" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="R76" t="s">
         <v>6</v>
@@ -1636,13 +1642,13 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="C77" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="R77" t="s">
         <v>6</v>
@@ -1650,13 +1656,13 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="C78" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="R78" t="s">
         <v>25</v>
@@ -1664,13 +1670,13 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="C79" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="R79" t="s">
         <v>6</v>
@@ -1678,13 +1684,13 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="C80" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="R80" t="s">
         <v>25</v>
@@ -1692,13 +1698,13 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="C81" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="R81" t="s">
         <v>25</v>
@@ -1706,13 +1712,13 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C82" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="R82" t="s">
         <v>6</v>
@@ -1720,13 +1726,13 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="C83" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="R83" t="s">
         <v>28</v>
@@ -1734,13 +1740,13 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C84" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="R84" t="s">
         <v>28</v>
@@ -1748,10 +1754,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="C85" t="s">
         <v>53</v>
@@ -1762,13 +1768,13 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>68</v>
       </c>
       <c r="C86" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="R86" t="s">
         <v>6</v>
@@ -1776,13 +1782,13 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C87" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="R87" t="s">
         <v>25</v>
@@ -1790,13 +1796,13 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C88" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="R88" t="s">
         <v>6</v>
@@ -1804,13 +1810,13 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C89" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="R89" t="s">
         <v>25</v>
@@ -1818,13 +1824,13 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C90" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="R90" t="s">
         <v>28</v>
@@ -1832,13 +1838,13 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C91" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="R91" t="s">
         <v>28</v>
@@ -1846,13 +1852,13 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>66</v>
       </c>
       <c r="C92" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="R92" t="s">
         <v>6</v>
@@ -1860,13 +1866,13 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="C93" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="R93" t="s">
         <v>28</v>
@@ -1874,13 +1880,13 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C94" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="R94" t="s">
         <v>25</v>
@@ -1888,13 +1894,13 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>76</v>
       </c>
       <c r="C95" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R95" t="s">
         <v>6</v>
@@ -1902,13 +1908,13 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C96" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="R96" t="s">
         <v>6</v>
@@ -1916,13 +1922,13 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C97" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="R97" t="s">
         <v>28</v>
@@ -1930,13 +1936,13 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="C98" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="R98" t="s">
         <v>6</v>
@@ -1944,13 +1950,13 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C99" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="R99" t="s">
         <v>25</v>
@@ -1958,15 +1964,29 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>43</v>
+      </c>
+      <c r="C100" t="s">
+        <v>44</v>
+      </c>
+      <c r="R100" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
         <v>100</v>
       </c>
-      <c r="B100" t="s">
-        <v>37</v>
-      </c>
-      <c r="C100" t="s">
-        <v>32</v>
-      </c>
-      <c r="R100" t="s">
+      <c r="B101" t="s">
+        <v>35</v>
+      </c>
+      <c r="C101" t="s">
+        <v>53</v>
+      </c>
+      <c r="R101" t="s">
         <v>28</v>
       </c>
     </row>
